--- a/model_devicelist.xlsx
+++ b/model_devicelist.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="177">
   <si>
     <t>设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,55 +593,7 @@
     <t>'222.35.90.222</t>
   </si>
   <si>
-    <t>备份服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.8.101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>administrator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qwe123!@#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cvconsole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.8.101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cvconsole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FE0A6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.8.100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linuxftp服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1012,51 +964,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
         <v>176</v>
-      </c>
-      <c r="B2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
